--- a/data/Project.xlsx
+++ b/data/Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18195" windowHeight="5970" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="18195" windowHeight="5970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan 1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="TSu3" sheetId="4" r:id="rId4"/>
     <sheet name="TSu4" sheetId="5" r:id="rId5"/>
     <sheet name="TSu5" sheetId="7" r:id="rId6"/>
-    <sheet name="TestElements" sheetId="6" r:id="rId7"/>
+    <sheet name="TSu6" sheetId="8" r:id="rId7"/>
+    <sheet name="TestElements" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="157">
   <si>
     <t>Test case</t>
   </si>
@@ -161,9 +162,6 @@
   </si>
   <si>
     <t>Verify that user can not continue to login with if Email address left empty</t>
-  </si>
-  <si>
-    <t>jorgetrajkovic+1@gmail.com</t>
   </si>
   <si>
     <t>MY ACCOUNT</t>
@@ -494,6 +492,9 @@
   </si>
   <si>
     <t>Removed product is not visible in the "Your shopping cart" section anymore.</t>
+  </si>
+  <si>
+    <t>michaelbutch+1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -921,7 +922,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,10 +976,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
         <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -990,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1016,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
@@ -1054,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,7 +1066,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1084,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1092,10 +1093,10 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -1146,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1157,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1176,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,10 +1185,10 @@
         <v>37</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D24" s="7"/>
     </row>
@@ -1213,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1238,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1276,10 +1277,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="D37" s="7"/>
     </row>
@@ -1291,7 +1292,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
@@ -1330,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,7 +1359,7 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,10 +1367,10 @@
         <v>40</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="7"/>
     </row>
@@ -1381,7 +1382,7 @@
         <v>29</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
         <v>32</v>
@@ -1420,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,7 +1432,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1448,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,10 +1457,10 @@
         <v>37</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="7"/>
     </row>
@@ -1471,7 +1472,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
         <v>32</v>
@@ -1485,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1510,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1536,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,10 +1548,10 @@
         <v>37</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D77" s="7"/>
     </row>
@@ -1576,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1598,10 +1599,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -1610,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1635,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -1660,10 +1661,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,10 +1680,10 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="7"/>
     </row>
@@ -1694,10 +1695,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="14"/>
     </row>
@@ -1731,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,10 +1748,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1758,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,10 +1770,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1780,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="17">
         <v>11373</v>
@@ -1791,7 +1792,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="17">
         <v>64332134</v>
@@ -1802,10 +1803,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,7 +1814,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,10 +1822,10 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="7"/>
     </row>
@@ -1836,10 +1837,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="14"/>
     </row>
@@ -1873,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1881,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -1890,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1898,10 +1899,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D41" s="7"/>
     </row>
@@ -1915,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,10 +1938,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -1974,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,10 +1983,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1993,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2001,10 +2002,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2012,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2020,10 +2021,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,10 +2040,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>47</v>
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,7 +2051,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="17">
         <v>19</v>
@@ -2061,10 +2062,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
         <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="20">
         <v>1990</v>
@@ -2083,7 +2084,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -2094,7 +2095,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -2105,7 +2106,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -2116,7 +2117,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2124,12 +2125,12 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2137,10 +2138,10 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="7"/>
     </row>
@@ -2157,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,10 +2181,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -2217,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,10 +2226,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,7 +2237,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -2245,10 +2246,10 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7"/>
     </row>
@@ -2260,10 +2261,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="14"/>
     </row>
@@ -2272,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2300,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2308,16 +2309,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2325,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="14"/>
     </row>
@@ -2334,16 +2335,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2359,16 +2360,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2376,7 +2377,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2386,7 +2387,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="8">
         <v>3</v>
@@ -2401,10 +2402,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E34" s="14"/>
     </row>
@@ -2438,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2446,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2454,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -2463,7 +2464,7 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D43" s="7"/>
     </row>
@@ -2477,7 +2478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
@@ -2499,10 +2500,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -2511,7 +2512,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2536,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2544,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2552,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -2561,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2569,7 +2570,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2577,7 +2578,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2585,7 +2586,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2593,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2601,7 +2602,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2616,10 +2617,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="14"/>
     </row>
@@ -2628,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2653,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2661,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2669,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="14">
         <v>3</v>
@@ -2680,7 +2681,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2688,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2696,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2704,7 +2705,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2712,7 +2713,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2720,7 +2721,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -2736,10 +2737,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" s="14"/>
     </row>
@@ -2748,7 +2749,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2773,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2792,7 +2793,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D41" s="7"/>
     </row>
@@ -2804,10 +2805,10 @@
         <v>29</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" s="14"/>
     </row>
@@ -2816,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2841,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2857,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2"/>
     </row>
@@ -2866,7 +2867,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2874,7 +2875,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2882,7 +2883,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2890,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2898,7 +2899,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2906,7 +2907,7 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2914,7 +2915,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2922,7 +2923,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2930,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2938,7 +2939,7 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2946,7 +2947,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2954,7 +2955,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2962,7 +2963,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,7 +2971,7 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2985,10 +2986,113 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,18 +3103,18 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/Project.xlsx
+++ b/data/Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18195" windowHeight="5970" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="18195" windowHeight="5970" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan 1" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,14 @@
     <sheet name="TSu3" sheetId="4" r:id="rId4"/>
     <sheet name="TSu4" sheetId="5" r:id="rId5"/>
     <sheet name="TSu5" sheetId="7" r:id="rId6"/>
-    <sheet name="TSu6" sheetId="8" r:id="rId7"/>
-    <sheet name="TestElements" sheetId="6" r:id="rId8"/>
+    <sheet name="TestElements" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="157">
   <si>
     <t>Test case</t>
   </si>
@@ -51,15 +50,6 @@
   </si>
   <si>
     <t>Verify that user can add a new address</t>
-  </si>
-  <si>
-    <t>Verify that user can remove address</t>
-  </si>
-  <si>
-    <t>Verify that user can edit personal information</t>
-  </si>
-  <si>
-    <t>Verify that user can add "wish list"</t>
   </si>
   <si>
     <t>Verify that user can remove "wish list"</t>
@@ -376,9 +366,6 @@
     <t>Click on "DRESSES" tab</t>
   </si>
   <si>
-    <t>Verify that user can add one product to cart</t>
-  </si>
-  <si>
     <t>Click on "Name" of desired product</t>
   </si>
   <si>
@@ -394,9 +381,6 @@
     <t>Verify that user can remove product from the cart</t>
   </si>
   <si>
-    <t>Verify that user can add 3 multiple products to cart</t>
-  </si>
-  <si>
     <t>In a pop-up window click on "Continue shopping" button</t>
   </si>
   <si>
@@ -479,9 +463,6 @@
   </si>
   <si>
     <t>New wish list is visible in a table / name in the table showed:</t>
-  </si>
-  <si>
-    <t>Verify that user can add "multiple wish list"</t>
   </si>
   <si>
     <t>New wish list is visible in a table,
@@ -495,6 +476,24 @@
   </si>
   <si>
     <t>michaelbutch+1@gmail.com</t>
+  </si>
+  <si>
+    <t>Verify that user can edit the personal information</t>
+  </si>
+  <si>
+    <t>Verify that user can remove the address</t>
+  </si>
+  <si>
+    <t>Verify that user can add the "wish list"</t>
+  </si>
+  <si>
+    <t>Verify that user can add the "multiple wish lists"</t>
+  </si>
+  <si>
+    <t>Verify that user can add one product to the cart</t>
+  </si>
+  <si>
+    <t>Verify that user can add 3 multiple products to the cart</t>
   </si>
 </sst>
 </file>
@@ -936,50 +935,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1010,19 +1009,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1035,10 +1034,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -1047,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1055,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,10 +1062,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,10 +1073,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,36 +1084,36 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1122,15 +1121,15 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -1139,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1147,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1155,10 +1154,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1166,10 +1165,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,36 +1176,36 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,15 +1213,15 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
@@ -1231,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,10 +1246,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,10 +1257,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,18 +1268,18 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D37" s="7"/>
     </row>
@@ -1289,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" t="s">
-        <v>32</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,15 +1305,15 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -1323,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C46" s="2"/>
     </row>
@@ -1348,10 +1347,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,18 +1358,18 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D50" s="7"/>
     </row>
@@ -1379,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" t="s">
-        <v>32</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,15 +1395,15 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -1413,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,10 +1428,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1440,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C60" s="1"/>
     </row>
@@ -1449,18 +1448,18 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="D63" s="7"/>
     </row>
@@ -1469,16 +1468,16 @@
         <v>0</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" t="s">
-        <v>32</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,15 +1485,15 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
@@ -1503,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1511,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1519,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C72" s="2"/>
     </row>
@@ -1528,7 +1527,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C73" s="1"/>
     </row>
@@ -1537,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1545,13 +1544,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D77" s="7"/>
     </row>
@@ -1577,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,16 +1592,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -1611,15 +1610,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -1628,7 +1627,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1636,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -1661,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,33 +1671,33 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15" s="14"/>
     </row>
@@ -1712,10 +1711,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -1724,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1732,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1740,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1748,10 +1747,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1759,10 +1758,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,10 +1769,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C25" s="17">
         <v>11373</v>
@@ -1792,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C26" s="17">
         <v>64332134</v>
@@ -1803,10 +1802,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,33 +1813,33 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E32" s="14"/>
     </row>
@@ -1849,15 +1848,15 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -1866,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1874,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1882,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -1891,18 +1890,18 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D41" s="7"/>
     </row>
@@ -1916,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,16 +1931,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -1950,15 +1949,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -1967,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1975,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1983,10 +1982,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1994,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2002,10 +2001,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2013,7 +2012,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2021,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,7 +2031,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,10 +2039,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,7 +2050,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="17">
         <v>19</v>
@@ -2062,10 +2061,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2073,7 +2072,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16" s="20">
         <v>1990</v>
@@ -2084,10 +2083,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2095,10 +2094,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2106,10 +2105,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,7 +2116,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,23 +2124,23 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D24" s="7"/>
     </row>
@@ -2158,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,16 +2174,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -2193,15 +2192,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -2210,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2218,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2226,10 +2225,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,34 +2236,34 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E17" s="14"/>
     </row>
@@ -2273,27 +2272,27 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2301,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2309,16 +2308,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2326,7 +2325,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" s="14"/>
     </row>
@@ -2335,16 +2334,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2352,7 +2351,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2360,16 +2359,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2377,17 +2376,17 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:8" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C31" s="8">
         <v>3</v>
@@ -2396,16 +2395,16 @@
     </row>
     <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E34" s="14"/>
     </row>
@@ -2414,15 +2413,15 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -2431,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2439,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2447,7 +2446,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2455,16 +2454,16 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D43" s="7"/>
     </row>
@@ -2478,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView topLeftCell="A70" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,16 +2493,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -2512,15 +2511,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -2529,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2537,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2545,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2553,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -2562,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2570,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2578,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2586,7 +2585,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2594,15 +2593,15 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2611,16 +2610,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="14"/>
     </row>
@@ -2629,15 +2628,15 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -2646,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2654,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2662,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2670,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C23" s="14">
         <v>3</v>
@@ -2681,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2689,7 +2688,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2697,7 +2696,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2705,7 +2704,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2713,15 +2712,15 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -2731,16 +2730,16 @@
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E32" s="14"/>
     </row>
@@ -2749,15 +2748,15 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -2766,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2774,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2782,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2790,25 +2789,25 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D41" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E45" s="14"/>
     </row>
@@ -2817,15 +2816,15 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
@@ -2834,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2842,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2850,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2858,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C52" s="2"/>
     </row>
@@ -2867,7 +2866,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2875,7 +2874,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2883,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2891,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2899,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2907,7 +2906,7 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,7 +2914,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2923,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,7 +2930,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2939,7 +2938,7 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,7 +2946,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,7 +2954,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2963,15 +2962,15 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2986,112 +2985,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3103,18 +2999,18 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/Project.xlsx
+++ b/data/Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18195" windowHeight="5970" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="18195" windowHeight="5970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="156">
   <si>
     <t>Test case</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Tc5</t>
   </si>
   <si>
-    <t>Verify that user can log in with valid credentials</t>
-  </si>
-  <si>
     <t>Verify that user can add a new address</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>Bug Report</t>
   </si>
   <si>
-    <t xml:space="preserve">Percondtion: </t>
-  </si>
-  <si>
     <t>Navigate to</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>project2415</t>
   </si>
   <si>
-    <t>Verify that user can not log in with invalid password</t>
-  </si>
-  <si>
     <t>Expected result:</t>
   </si>
   <si>
@@ -148,12 +139,6 @@
     <t>Enter valid Email in Email address field</t>
   </si>
   <si>
-    <t>Verify that user can not continue to login if field password left empty</t>
-  </si>
-  <si>
-    <t>Verify that user can not continue to login with if Email address left empty</t>
-  </si>
-  <si>
     <t>MY ACCOUNT</t>
   </si>
   <si>
@@ -182,9 +167,6 @@
   </si>
   <si>
     <t>Click on "Sign in" button</t>
-  </si>
-  <si>
-    <t>Verify that user can not continue to login if both fields left empty</t>
   </si>
   <si>
     <t>User must be logged in.</t>
@@ -426,9 +408,6 @@
     <t>User must be logged in and address exist in my "MY ADDRESSES" tab</t>
   </si>
   <si>
-    <t>Verify that user can not continue to login with wrong Email address format entered</t>
-  </si>
-  <si>
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
@@ -494,6 +473,24 @@
   </si>
   <si>
     <t>Verify that user can add 3 multiple products to the cart</t>
+  </si>
+  <si>
+    <t>Verify that user can not  login if both fields left empty</t>
+  </si>
+  <si>
+    <t>Verify that user can login if the password field left empty</t>
+  </si>
+  <si>
+    <t>Verify that user can not login if the email address field left empty</t>
+  </si>
+  <si>
+    <t>Verify that user can not log in using invalid password</t>
+  </si>
+  <si>
+    <t>Verify that user can log in using valid credentials</t>
+  </si>
+  <si>
+    <t>Verify that user can not login if the wrong email address format entered</t>
   </si>
 </sst>
 </file>
@@ -935,50 +932,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -990,14 +987,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="74.5703125" customWidth="1"/>
+    <col min="2" max="2" width="79.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
@@ -1009,19 +1006,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,16 +1026,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1062,10 +1059,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,10 +1070,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1084,36 +1081,36 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,16 +1118,16 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,10 +1151,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,10 +1162,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1176,36 +1173,36 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,16 +1210,16 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
@@ -1230,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1238,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,10 +1243,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,10 +1254,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,18 +1265,18 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D37" s="7"/>
     </row>
@@ -1288,16 +1285,16 @@
         <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,16 +1302,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
         <v>11</v>
       </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1330,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1338,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C46" s="2"/>
     </row>
@@ -1347,10 +1344,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,18 +1355,18 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D50" s="7"/>
     </row>
@@ -1378,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1395,16 +1392,16 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
         <v>11</v>
       </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
       <c r="D57" t="s">
         <v>1</v>
       </c>
@@ -1412,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1428,10 +1425,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C60" s="1"/>
     </row>
@@ -1448,18 +1445,18 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D63" s="7"/>
     </row>
@@ -1468,16 +1465,16 @@
         <v>0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1485,16 +1482,16 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
         <v>11</v>
       </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
       <c r="D70" t="s">
         <v>1</v>
       </c>
@@ -1502,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1510,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1518,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C72" s="2"/>
     </row>
@@ -1527,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C73" s="1"/>
     </row>
@@ -1536,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,13 +1541,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D77" s="7"/>
     </row>
@@ -1592,16 +1589,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -1610,16 +1607,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -1627,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1635,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -1660,10 +1657,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,33 +1668,33 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E15" s="14"/>
     </row>
@@ -1706,16 +1703,16 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
@@ -1723,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1758,10 +1755,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,10 +1766,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1780,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C25" s="17">
         <v>11373</v>
@@ -1791,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C26" s="17">
         <v>64332134</v>
@@ -1802,10 +1799,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,33 +1810,33 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E32" s="14"/>
     </row>
@@ -1848,16 +1845,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
         <v>11</v>
       </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
       <c r="D36" t="s">
         <v>1</v>
       </c>
@@ -1865,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1881,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -1890,18 +1887,18 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D41" s="7"/>
     </row>
@@ -1915,7 +1912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1931,16 +1928,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -1949,16 +1946,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -1966,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1974,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,10 +1979,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1993,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2001,10 +1998,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2012,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2020,10 +2017,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,7 +2028,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,10 +2036,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,7 +2047,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C14" s="17">
         <v>19</v>
@@ -2061,10 +2058,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C16" s="20">
         <v>1990</v>
@@ -2083,10 +2080,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2094,10 +2091,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2105,10 +2102,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2116,7 +2113,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2124,23 +2121,23 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D24" s="7"/>
     </row>
@@ -2157,7 +2154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2174,16 +2171,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -2192,16 +2189,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -2209,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,10 +2222,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,34 +2233,34 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" s="14"/>
     </row>
@@ -2272,27 +2269,27 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2300,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2308,16 +2305,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2325,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C24" s="14"/>
     </row>
@@ -2334,16 +2331,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,7 +2348,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2359,16 +2356,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2376,17 +2373,17 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:8" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C31" s="8">
         <v>3</v>
@@ -2395,16 +2392,16 @@
     </row>
     <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E34" s="14"/>
     </row>
@@ -2413,16 +2410,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
         <v>11</v>
       </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
@@ -2430,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2438,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2446,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2454,16 +2451,16 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D43" s="7"/>
     </row>
@@ -2477,7 +2474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -2493,16 +2490,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -2511,16 +2508,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -2528,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2536,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2544,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2552,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -2561,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2569,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2577,7 +2574,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2585,7 +2582,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2593,15 +2590,15 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2610,16 +2607,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E16" s="14"/>
     </row>
@@ -2628,16 +2625,16 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
@@ -2645,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2653,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2661,7 +2658,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2669,7 +2666,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C23" s="14">
         <v>3</v>
@@ -2680,7 +2677,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2688,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2696,7 +2693,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2704,7 +2701,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2712,15 +2709,15 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -2730,16 +2727,16 @@
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E32" s="14"/>
     </row>
@@ -2748,16 +2745,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
         <v>11</v>
       </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
       <c r="D36" t="s">
         <v>1</v>
       </c>
@@ -2765,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2773,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2789,25 +2786,25 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D41" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E45" s="14"/>
     </row>
@@ -2816,16 +2813,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
         <v>11</v>
       </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
       <c r="D49" t="s">
         <v>1</v>
       </c>
@@ -2833,7 +2830,7 @@
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2841,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2857,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2"/>
     </row>
@@ -2866,7 +2863,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2874,7 +2871,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2882,7 +2879,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2890,7 +2887,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2898,7 +2895,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2906,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2914,7 +2911,7 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2922,7 +2919,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2930,7 +2927,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2938,7 +2935,7 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2946,7 +2943,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2954,7 +2951,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2962,15 +2959,15 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2987,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,18 +2996,18 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
